--- a/SyntheticGraphite_DB_Schema.xlsx
+++ b/SyntheticGraphite_DB_Schema.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python project\graphite-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADA3FB9-F764-411F-902C-9A040E3862F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF20C5C-8B7B-4E22-9397-EAFBEF887319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45972" yWindow="-5052" windowWidth="17496" windowHeight="30336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="graphite-DB" sheetId="1" r:id="rId1"/>
+    <sheet name="graphite-DB 新增" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="196">
   <si>
     <t>批次号</t>
   </si>
@@ -733,6 +734,75 @@
   </si>
   <si>
     <t>GH-38，GP-43，THK-43，NA-38，GH-50，THK-55，NA-50，GP-55，TH5-50，NA-62，GH-62，TH5-62，GH-68，TH5-68，GH-75，THK-65，THK-72，GH-90，TH5-75，TH5-90，GH-100，GH-125，TH5-100，GH-140，TH5-125，GH-150，TH5-140，GTS-43，TH5-150，GTS-55，THK-150，GTS-160，THK-160，GTS-170，THS-150，GP-65，THS-160，GP-72，GP-90，GP-100，GP-105，GP-150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧制卷数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI膜补充说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石墨化其它参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石墨压延最薄极限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石墨化补充说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压延补充说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳化补充说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成碳率%
+（石墨质量/PI质量）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -778,7 +848,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,6 +897,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -868,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,6 +1029,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3350,4 +3438,2533 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3561420C-38CB-4007-81BA-A185DF4B09FF}">
+  <dimension ref="A1:L98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88:B90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" customWidth="1"/>
+    <col min="6" max="7" width="21.7265625" customWidth="1"/>
+    <col min="8" max="8" width="20.54296875" customWidth="1"/>
+    <col min="9" max="9" width="87.54296875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" customWidth="1"/>
+    <col min="11" max="12" width="14.1796875" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" customWidth="1"/>
+    <col min="14" max="16" width="10.7265625" customWidth="1"/>
+    <col min="17" max="17" width="17.7265625" customWidth="1"/>
+    <col min="18" max="28" width="10.7265625" customWidth="1"/>
+    <col min="29" max="30" width="9.7265625" customWidth="1"/>
+    <col min="31" max="31" width="11" customWidth="1"/>
+    <col min="32" max="32" width="10.90625" customWidth="1"/>
+    <col min="33" max="37" width="9.7265625" customWidth="1"/>
+    <col min="38" max="38" width="12.26953125" customWidth="1"/>
+    <col min="39" max="39" width="16.7265625" customWidth="1"/>
+    <col min="40" max="40" width="12.453125" customWidth="1"/>
+    <col min="41" max="41" width="18.08984375" customWidth="1"/>
+    <col min="42" max="43" width="10.7265625" customWidth="1"/>
+    <col min="44" max="44" width="16.7265625" customWidth="1"/>
+    <col min="45" max="46" width="9.7265625" customWidth="1"/>
+    <col min="47" max="47" width="15.7265625" customWidth="1"/>
+    <col min="48" max="54" width="10.7265625" customWidth="1"/>
+    <col min="55" max="55" width="11.7265625" customWidth="1"/>
+    <col min="56" max="57" width="10.7265625" customWidth="1"/>
+    <col min="58" max="58" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="25">
+        <v>20250901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
+        <v>2.1</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18">
+        <v>2.4</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="19">
+        <v>3.1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19">
+        <v>3.3</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19">
+        <v>3.4</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20">
+        <v>4.3</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="20">
+        <v>4.7</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="20">
+        <v>4.8</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="20">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="20">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+    </row>
+    <row r="36" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="20">
+        <v>4.12</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="20">
+        <v>4.13</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="20">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+    </row>
+    <row r="42" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+    </row>
+    <row r="43" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+    </row>
+    <row r="44" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+    </row>
+    <row r="45" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="32"/>
+      <c r="F45" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+    </row>
+    <row r="46" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+    </row>
+    <row r="47" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="21">
+        <v>5.2</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+    </row>
+    <row r="48" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="21">
+        <v>5.3</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+    </row>
+    <row r="49" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="21">
+        <v>5.4</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+    </row>
+    <row r="50" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="21">
+        <v>5.5</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+    </row>
+    <row r="51" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="21">
+        <v>5.6</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+    </row>
+    <row r="52" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="21">
+        <v>5.7</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+    </row>
+    <row r="53" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="21">
+        <v>5.8</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+    </row>
+    <row r="54" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="21">
+        <v>5.9</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+    </row>
+    <row r="55" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+    </row>
+    <row r="56" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+    </row>
+    <row r="57" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+    </row>
+    <row r="58" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+    </row>
+    <row r="59" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+    </row>
+    <row r="60" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+    </row>
+    <row r="61" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+    </row>
+    <row r="62" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+    </row>
+    <row r="63" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+    </row>
+    <row r="64" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+    </row>
+    <row r="65" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+    </row>
+    <row r="66" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+    </row>
+    <row r="67" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+    </row>
+    <row r="68" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+    </row>
+    <row r="69" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+    </row>
+    <row r="70" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+    </row>
+    <row r="71" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H71" s="3"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+    </row>
+    <row r="72" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+    </row>
+    <row r="73" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H73" s="3"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+    </row>
+    <row r="74" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" s="3"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+    </row>
+    <row r="75" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E75" s="32"/>
+      <c r="F75" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H75" s="3"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+    </row>
+    <row r="76" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="22">
+        <v>6.1</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H76" s="3"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+    </row>
+    <row r="77" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="22">
+        <v>6.2</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H77" s="3"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+    </row>
+    <row r="78" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="22">
+        <v>6.3</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H78" s="3"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+    </row>
+    <row r="79" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="22">
+        <v>6.4</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H79" s="3"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+    </row>
+    <row r="80" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E80" s="32"/>
+      <c r="F80" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+    </row>
+    <row r="81" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="23">
+        <v>7.1</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+    </row>
+    <row r="82" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="23">
+        <v>7.2</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+    </row>
+    <row r="83" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="23">
+        <v>7.3</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H83" s="3"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+    </row>
+    <row r="84" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="23">
+        <v>7.4</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+    </row>
+    <row r="85" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="23">
+        <v>7.5</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H85" s="3"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+    </row>
+    <row r="86" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="23">
+        <v>7.6</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H86" s="3"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+    </row>
+    <row r="87" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="23">
+        <v>7.7</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H87" s="3"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+    </row>
+    <row r="88" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="23">
+        <v>7.8</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H88" s="3"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+    </row>
+    <row r="89" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="23">
+        <v>7.9</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H89" s="3"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+    </row>
+    <row r="90" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+    </row>
+    <row r="91" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="23">
+        <v>7.11</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+    </row>
+    <row r="92" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H92" s="3"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+    </row>
+    <row r="93" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H93" s="3"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+    </row>
+    <row r="94" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H94" s="3"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+    </row>
+    <row r="95" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+    </row>
+    <row r="96" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H96" s="3"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+    </row>
+    <row r="97" spans="1:12" s="25" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E97" s="32"/>
+      <c r="F97" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G97" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+    </row>
+    <row r="98" spans="1:12" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>